--- a/week3/prac02.xlsx
+++ b/week3/prac02.xlsx
@@ -1327,11 +1327,7 @@
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>홍길동</t>
-        </is>
-      </c>
+      <c r="B2" s="5" t="n"/>
       <c r="C2" s="6" t="n"/>
       <c r="D2" s="6" t="n"/>
       <c r="E2" s="6" t="n"/>
@@ -1343,7 +1339,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="n"/>
-      <c r="C3" s="9" t="n"/>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>홍길동</t>
+        </is>
+      </c>
       <c r="D3" s="9" t="n"/>
       <c r="E3" s="9" t="n"/>
       <c r="F3" s="9" t="n"/>
